--- a/outputs/2_dists_by_taxcode_proc_kane.xlsx
+++ b/outputs/2_dists_by_taxcode_proc_kane.xlsx
@@ -193,7 +193,7 @@
     <t xml:space="preserve">MESSENGER LIBRARY</t>
   </si>
   <si>
-    <t xml:space="preserve">NORTH AURORA</t>
+    <t xml:space="preserve">NO AURORA</t>
   </si>
   <si>
     <t xml:space="preserve">AU016</t>
@@ -262,7 +262,7 @@
     <t xml:space="preserve">AU031</t>
   </si>
   <si>
-    <t xml:space="preserve">AURORA SSA # 94</t>
+    <t xml:space="preserve">AURORA SSA 94</t>
   </si>
   <si>
     <t xml:space="preserve">U 101</t>
@@ -724,7 +724,7 @@
     <t xml:space="preserve">AU127</t>
   </si>
   <si>
-    <t xml:space="preserve">AURORA SSA # 96</t>
+    <t xml:space="preserve">AURORA SSA 96</t>
   </si>
   <si>
     <t xml:space="preserve">AURORA SSA 111</t>
@@ -3154,7 +3154,7 @@
     <t xml:space="preserve">EL011</t>
   </si>
   <si>
-    <t xml:space="preserve">SOUTH ELGIN</t>
+    <t xml:space="preserve">SO ELGIN</t>
   </si>
   <si>
     <t xml:space="preserve">EL012</t>
@@ -3604,7 +3604,7 @@
     <t xml:space="preserve">GE038</t>
   </si>
   <si>
-    <t xml:space="preserve">GENEVA SSA #30</t>
+    <t xml:space="preserve">GENEVA SSA 30</t>
   </si>
   <si>
     <t xml:space="preserve">GE039</t>
@@ -4270,7 +4270,7 @@
     <t xml:space="preserve">RU039</t>
   </si>
   <si>
-    <t xml:space="preserve">GILBERTS SSA # 13</t>
+    <t xml:space="preserve">GILBERTS SSA 13</t>
   </si>
   <si>
     <t xml:space="preserve">RU040</t>
@@ -4378,7 +4378,7 @@
     <t xml:space="preserve">RU075</t>
   </si>
   <si>
-    <t xml:space="preserve">GILBERTS SSA # 12</t>
+    <t xml:space="preserve">GILBERTS SSA 12</t>
   </si>
   <si>
     <t xml:space="preserve">RU076</t>
@@ -5707,7 +5707,7 @@
     <t xml:space="preserve">AURORA CITY LIBRARY; MESSENGER LIBRARY</t>
   </si>
   <si>
-    <t xml:space="preserve">ALGONQUIN; AURORA; BARRINGTON HILLS; BARTLETT; BATAVIA; BIG ROCK; BURLINGTON; CAMPTON HILLS; CARPENTERSVILLE; EAST DUNDEE; ELBURN; ELGIN; GENEVA; GILBERTS; HAMPSHIRE; HOFFMAN ESTATES; HUNTLEY; KANEVILLE; LILY LAKE; MAPLE PARK; MONTGOMERY; NORTH AURORA; PINGREE GROVE; SLEEPY HOLLOW; SOUTH ELGIN; ST CHARLES; SUGAR GROVE; VIRGIL; WAYNE; WEST DUNDEE</t>
+    <t xml:space="preserve">ALGONQUIN; AURORA; BARRINGTON HILLS; BARTLETT; BATAVIA; BIG ROCK; BURLINGTON; CAMPTON HILLS; CARPENTERSVILLE; EAST DUNDEE; ELBURN; ELGIN; GENEVA; GILBERTS; HAMPSHIRE; HOFFMAN ESTATES; HUNTLEY; KANEVILLE; LILY LAKE; MAPLE PARK; MONTGOMERY; NO AURORA; PINGREE GROVE; SLEEPY HOLLOW; SO ELGIN; ST CHARLES; SUGAR GROVE; VIRGIL; WAYNE; WEST DUNDEE</t>
   </si>
   <si>
     <t xml:space="preserve">BARTLETT PKD; BATAVIA PKD; BIG ROCK TWP PKD; BURLINGTON PKD; DUNDEE PKD; FOX VALLEY PKD; GENEVA PKD; HAMPSHIRE PKD; HUNTLEY PKD; ST CHARLES PKD; SUGAR GROVE PKD</t>
@@ -5719,7 +5719,7 @@
     <t xml:space="preserve">BURLINGTON SOLID WASTE DISPOSAL; CAMPTON SOLID WASTE DISPOSAL; RUTLAND SOLID WASTE DISPOSAL; VIRGIL SOLID WASTE DISPOSAL</t>
   </si>
   <si>
-    <t xml:space="preserve">AURORA SSA # 94; AURORA SSA # 96; AURORA SSA 1; AURORA SSA 100A; AURORA SSA 100D; AURORA SSA 100F; AURORA SSA 101; AURORA SSA 102; AURORA SSA 103; AURORA SSA 104; AURORA SSA 108; AURORA SSA 109A; AURORA SSA 110; AURORA SSA 113; AURORA SSA 115; AURORA SSA 116; AURORA SSA 117; AURORA SSA 118; AURORA SSA 119; AURORA SSA 121; AURORA SSA 123; AURORA SSA 126; AURORA SSA 127; AURORA SSA 129; AURORA SSA 130; AURORA SSA 133; AURORA SSA 134; AURORA SSA 136A; AURORA SSA 136B; AURORA SSA 136C; AURORA SSA 136D; AURORA SSA 138; AURORA SSA 139; AURORA SSA 14; AURORA SSA 140; AURORA SSA 142; AURORA SSA 143; AURORA SSA 144; AURORA SSA 145; AURORA SSA 146; AURORA SSA 148; AURORA SSA 149; AURORA SSA 151; AURORA SSA 154; AURORA SSA 156; AURORA SSA 157 DISSOLVED; AURORA SSA 159; AURORA SSA 160; AURORA SSA 162; AURORA SSA 163; AURORA SSA 165; AURORA SSA 168A; AURORA SSA 168B; AURORA SSA 170; AURORA SSA 171; AURORA SSA 172; AURORA SSA 173; AURORA SSA 174; AURORA SSA 175; AURORA SSA 177; AURORA SSA 178; AURORA SSA 179; AURORA SSA 180; AURORA SSA 181; AURORA SSA 182; AURORA SSA 183; AURORA SSA 184; AURORA SSA 185; AURORA SSA 186; AURORA SSA 189; AURORA SSA 190; AURORA SSA 194; AURORA SSA 195; AURORA SSA 25; AURORA SSA 32; AURORA SSA 36; AURORA SSA 37; AURORA SSA 44; AURORA SSA 45; AURORA SSA 47; AURORA SSA 48; AURORA SSA 49A; AURORA SSA 49B; AURORA SSA 49C; AURORA SSA 49D; AURORA SSA 52; AURORA SSA 54; AURORA SSA 56; AURORA SSA 56A; AURORA SSA 56B; AURORA SSA 60; AURORA SSA 62; AURORA SSA 63; AURORA SSA 65; AURORA SSA 66A; AURORA SSA 66B; AURORA SSA 66C; AURORA SSA 66D; AURORA SSA 67; AURORA SSA 70; AURORA SSA 71; AURORA SSA 77; AURORA SSA 81; AURORA SSA 82; AURORA SSA 83; AURORA SSA 85; AURORA SSA 86A; AURORA SSA 86B; AURORA SSA 88; AURORA SSA 89; AURORA SSA 90; AURORA SSA 92; AURORA SSA 93; AURORA SSA 99; BARTLETT SSA 1; BATAVIA SSA 1; BATAVIA SSA 10; BATAVIA SSA 11; BATAVIA SSA 12; BATAVIA SSA 13; BATAVIA SSA 14; BATAVIA SSA 15; BATAVIA SSA 16; BATAVIA SSA 17; BATAVIA SSA 19; BATAVIA SSA 20; BATAVIA SSA 22; BATAVIA SSA 23; BATAVIA SSA 24; BATAVIA SSA 25; BATAVIA SSA 26; BATAVIA SSA 27; BATAVIA SSA 29; BATAVIA SSA 30; BATAVIA SSA 31; BATAVIA SSA 32; BATAVIA SSA 33; BATAVIA SSA 34; BATAVIA SSA 4; BATAVIA SSA 46; BATAVIA SSA 47; BATAVIA SSA 48; BATAVIA SSA 5; BATAVIA SSA 52; BATAVIA SSA 53; BATAVIA SSA 57; BATAVIA SSA 58; BATAVIA SSA 60; BATAVIA SSA 61; BATAVIA SSA 62; BATAVIA SSA 63; BATAVIA SSA 64; BATAVIA SSA 8; BURLINGTON SSA 1; BURLINGTON SSA 2; CARPENTERSVILLE SSA 1; CARPENTERSVILLE SSA 10; CARPENTERSVILLE SSA 11; CARPENTERSVILLE SSA 18; CARPENTERSVILLE SSA 19; CARPENTERSVILLE SSA 2; CARPENTERSVILLE SSA 20; CARPENTERSVILLE SSA 21; CARPENTERSVILLE SSA 23; CARPENTERSVILLE SSA 24; CARPENTERSVILLE SSA 26; CARPENTERSVILLE SSA 27; CARPENTERSVILLE SSA 28; CARPENTERSVILLE SSA 29; CARPENTERSVILLE SSA 3; CARPENTERSVILLE SSA 30; CARPENTERSVILLE SSA 31; EAST DUNDEE SSA 2; EAST DUNDEE SSA 3; EAST DUNDEE SSA 4; ELBURN SSA 1; ELBURN SSA 2; ELBURN SSA 3; ELBURN SSA 5; ELBURN SSA 6; ELGIN SSA 10; ELGIN SSA 11; ELGIN SSA 12; ELGIN SSA 13; ELGIN SSA 16; ELGIN SSA 17; ELGIN SSA 18; ELGIN SSA 19; ELGIN SSA 20; ELGIN SSA 24; ELGIN SSA 25; ELGIN SSA 3; ELGIN SSA 4; ELGIN SSA 5; ELGIN SSA 7; ELGIN SSA 8; ELGIN SSA 9; GENEVA SSA #30; GENEVA SSA 1; GENEVA SSA 11; GENEVA SSA 14; GENEVA SSA 16; GENEVA SSA 17; GENEVA SSA 18; GENEVA SSA 2; GENEVA SSA 20; GENEVA SSA 21; GENEVA SSA 23; GENEVA SSA 25; GENEVA SSA 26; GENEVA SSA 27; GENEVA SSA 28; GENEVA SSA 29; GENEVA SSA 3; GENEVA SSA 32; GENEVA SSA 33; GENEVA SSA 4; GENEVA SSA 5; GENEVA SSA 7; GENEVA SSA 8; GENEVA SSA 9; GILBERTS SSA # 12; GILBERTS SSA # 13; GILBERTS SSA 11; GILBERTS SSA 22; GILBERTS SSA 25; HAMPSHIRE SSA 10; HAMPSHIRE SSA 11; HAMPSHIRE SSA 12; HAMPSHIRE SSA 15; HAMPSHIRE SSA 2; HAMPSHIRE SSA 20; HAMPSHIRE SSA 21; HAMPSHIRE SSA 22; HAMPSHIRE SSA 23; HAMPSHIRE SSA 26; HAMPSHIRE SSA 3; HAMPSHIRE SSA 4; HAMPSHIRE SSA 6; HAMPSHIRE SSA 7; HAMPSHIRE SSA 8; KC SSA SW 1; KC SSA SW 10; KC SSA SW 11; KC SSA SW 12; KC SSA SW 13; KC SSA SW 14; KC SSA SW 15; KC SSA SW 16; KC SSA SW 17; KC SSA SW 18; KC SSA SW 19; KC SSA SW 2; KC SSA SW 20; KC SSA SW 21; KC SSA SW 22; KC SSA SW 23; KC SSA SW 25; KC SSA SW 26; KC SSA SW 27; KC SSA SW 28; KC SSA SW 29; KC SSA SW 3; KC SSA SW 30; KC SSA SW 31; KC SSA SW 32; KC SSA SW 33; KC SSA SW 34; KC SSA SW 35; KC SSA SW 4; KC SSA SW 5; KC SSA SW 51; KC SSA SW 6; KC SSA SW 7; KC SSA SW 8; KC SSA SW 9; MAPLE PARK SSA 2; MAPLE PARK SSA 4; MILL CREEK SSA; MONTGOMERY SSA 1; MONTGOMERY SSA 12; MONTGOMERY SSA 13; MONTGOMERY SSA 14; MONTGOMERY SSA 17; MONTGOMERY SSA 18; MONTGOMERY SSA 2; MONTGOMERY SSA 23; MONTGOMERY SSA 24; MONTGOMERY SSA 25; MONTGOMERY SSA 26; MONTGOMERY SSA 32; MONTGOMERY SSA 34; MONTGOMERY SSA 35; MONTGOMERY SSA 36; MONTGOMERY SSA 37; MONTGOMERY SSA 38; MONTGOMERY SSA 40; MONTGOMERY SSA 41; MONTGOMERY SSA 5; MONTGOMERY SSA 5A; MONTGOMERY SSA 6; MONTGOMERY SSA 9; NORTH AURORA SSA 10; NORTH AURORA SSA 11; NORTH AURORA SSA 12; NORTH AURORA SSA 13; NORTH AURORA SSA 14; NORTH AURORA SSA 15; NORTH AURORA SSA 16; NORTH AURORA SSA 17; NORTH AURORA SSA 18; NORTH AURORA SSA 19; NORTH AURORA SSA 20; NORTH AURORA SSA 21; NORTH AURORA SSA 22; NORTH AURORA SSA 23; NORTH AURORA SSA 24; NORTH AURORA SSA 25; NORTH AURORA SSA 26; NORTH AURORA SSA 27; NORTH AURORA SSA 28; NORTH AURORA SSA 29; NORTH AURORA SSA 3; NORTH AURORA SSA 30; NORTH AURORA SSA 31; NORTH AURORA SSA 32; NORTH AURORA SSA 33; NORTH AURORA SSA 34; NORTH AURORA SSA 35; NORTH AURORA SSA 37; NORTH AURORA SSA 39; NORTH AURORA SSA 4; NORTH AURORA SSA 40; NORTH AURORA SSA 41; NORTH AURORA SSA 5; NORTH AURORA SSA 7; NORTH AURORA SSA 8; NORTH AURORA SSA 9; PINGREE GROVE SSA 5; PINGREE GRV SSA 10; PINGREE GRV SSA 16; PINGREE GRV SSA 17; PINGREE GRV SSA 19; PINGREE GRV SSA 20; PINGREE GRV SSA 8; RICHARDSON SUBDIVISION SSA; SLEEPY HOLLOW SSA 2; SOUTH ELGIN SSA 1; SOUTH ELGIN SSA 2; SOUTH ELGIN SSA 3; SOUTH ELGIN SSA 4; SOUTH ELGIN SSA 5; ST CHARLES SSA 10; ST CHARLES SSA 11; ST CHARLES SSA 12; ST CHARLES SSA 13; ST CHARLES SSA 14; ST CHARLES SSA 15; ST CHARLES SSA 16; ST CHARLES SSA 17; ST CHARLES SSA 18; ST CHARLES SSA 19; ST CHARLES SSA 1A; ST CHARLES SSA 1B; ST CHARLES SSA 20; ST CHARLES SSA 21; ST CHARLES SSA 22; ST CHARLES SSA 23; ST CHARLES SSA 24; ST CHARLES SSA 25; ST CHARLES SSA 26; ST CHARLES SSA 27; ST CHARLES SSA 28; ST CHARLES SSA 29; ST CHARLES SSA 30; ST CHARLES SSA 31; ST CHARLES SSA 35; ST CHARLES SSA 36; ST CHARLES SSA 39; ST CHARLES SSA 40; ST CHARLES SSA 41; ST CHARLES SSA 42; ST CHARLES SSA 43; ST CHARLES SSA 44; ST CHARLES SSA 46; ST CHARLES SSA 47; ST CHARLES SSA 48; ST CHARLES SSA 49; ST CHARLES SSA 5; ST CHARLES SSA 50; ST CHARLES SSA 51; ST CHARLES SSA 53; ST CHARLES SSA 54; ST CHARLES SSA 55; ST CHARLES SSA 56; ST CHARLES SSA 57; ST CHARLES SSA 58; ST CHARLES SSA 59; ST CHARLES SSA 6; ST CHARLES SSA 60; ST CHARLES SSA 61; ST CHARLES SSA 62; ST CHARLES SSA 64; ST CHARLES SSA 65; ST CHARLES SSA 66; ST CHARLES SSA 69; ST CHARLES SSA 7; ST CHARLES SSA 70; ST CHARLES SSA 8; ST CHARLES SSA 9; SUGAR GROVE SSA 1; SUGAR GROVE SSA 11; SUGAR GROVE SSA 13; SUGAR GROVE SSA 14; SUGAR GROVE SSA 16; SUGAR GROVE SSA 18; SUGAR GROVE SSA 2; SUGAR GROVE SSA 23; SUGAR GROVE SSA 24; SUGAR GROVE SSA 25; SUGAR GROVE SSA 3; SUGAR GROVE SSA 4; SUGAR GROVE SSA 6; SUGAR GROVE SSA 7; SUGAR GROVE SSA 8; SUGAR GROVE SSA 9; VIRGIL SSA 1; WAYNE SSA 1; WAYNE SSA 3; WAYNE SSA 5; WEST DUNDEE SSA 1; WEST DUNDEE SSA 2; WEST DUNDEE SSA 4; WEST DUNDEE SSA 6; WEST DUNDEE SSA 7</t>
+    <t xml:space="preserve">AURORA SSA 1; AURORA SSA 100A; AURORA SSA 100D; AURORA SSA 100F; AURORA SSA 101; AURORA SSA 102; AURORA SSA 103; AURORA SSA 104; AURORA SSA 108; AURORA SSA 109A; AURORA SSA 110; AURORA SSA 113; AURORA SSA 115; AURORA SSA 116; AURORA SSA 117; AURORA SSA 118; AURORA SSA 119; AURORA SSA 121; AURORA SSA 123; AURORA SSA 126; AURORA SSA 127; AURORA SSA 129; AURORA SSA 130; AURORA SSA 133; AURORA SSA 134; AURORA SSA 136A; AURORA SSA 136B; AURORA SSA 136C; AURORA SSA 136D; AURORA SSA 138; AURORA SSA 139; AURORA SSA 14; AURORA SSA 140; AURORA SSA 142; AURORA SSA 143; AURORA SSA 144; AURORA SSA 145; AURORA SSA 146; AURORA SSA 148; AURORA SSA 149; AURORA SSA 151; AURORA SSA 154; AURORA SSA 156; AURORA SSA 157 DISSOLVED; AURORA SSA 159; AURORA SSA 160; AURORA SSA 162; AURORA SSA 163; AURORA SSA 165; AURORA SSA 168A; AURORA SSA 168B; AURORA SSA 170; AURORA SSA 171; AURORA SSA 172; AURORA SSA 173; AURORA SSA 174; AURORA SSA 175; AURORA SSA 177; AURORA SSA 178; AURORA SSA 179; AURORA SSA 180; AURORA SSA 181; AURORA SSA 182; AURORA SSA 183; AURORA SSA 184; AURORA SSA 185; AURORA SSA 186; AURORA SSA 189; AURORA SSA 190; AURORA SSA 194; AURORA SSA 195; AURORA SSA 25; AURORA SSA 32; AURORA SSA 36; AURORA SSA 37; AURORA SSA 44; AURORA SSA 45; AURORA SSA 47; AURORA SSA 48; AURORA SSA 49A; AURORA SSA 49B; AURORA SSA 49C; AURORA SSA 49D; AURORA SSA 52; AURORA SSA 54; AURORA SSA 56; AURORA SSA 56A; AURORA SSA 56B; AURORA SSA 60; AURORA SSA 62; AURORA SSA 63; AURORA SSA 65; AURORA SSA 66A; AURORA SSA 66B; AURORA SSA 66C; AURORA SSA 66D; AURORA SSA 67; AURORA SSA 70; AURORA SSA 71; AURORA SSA 77; AURORA SSA 81; AURORA SSA 82; AURORA SSA 83; AURORA SSA 85; AURORA SSA 86A; AURORA SSA 86B; AURORA SSA 88; AURORA SSA 89; AURORA SSA 90; AURORA SSA 92; AURORA SSA 93; AURORA SSA 94; AURORA SSA 96; AURORA SSA 99; BARTLETT SSA 1; BATAVIA SSA 1; BATAVIA SSA 10; BATAVIA SSA 11; BATAVIA SSA 12; BATAVIA SSA 13; BATAVIA SSA 14; BATAVIA SSA 15; BATAVIA SSA 16; BATAVIA SSA 17; BATAVIA SSA 19; BATAVIA SSA 20; BATAVIA SSA 22; BATAVIA SSA 23; BATAVIA SSA 24; BATAVIA SSA 25; BATAVIA SSA 26; BATAVIA SSA 27; BATAVIA SSA 29; BATAVIA SSA 30; BATAVIA SSA 31; BATAVIA SSA 32; BATAVIA SSA 33; BATAVIA SSA 34; BATAVIA SSA 4; BATAVIA SSA 46; BATAVIA SSA 47; BATAVIA SSA 48; BATAVIA SSA 5; BATAVIA SSA 52; BATAVIA SSA 53; BATAVIA SSA 57; BATAVIA SSA 58; BATAVIA SSA 60; BATAVIA SSA 61; BATAVIA SSA 62; BATAVIA SSA 63; BATAVIA SSA 64; BATAVIA SSA 8; BURLINGTON SSA 1; BURLINGTON SSA 2; CARPENTERSVILLE SSA 1; CARPENTERSVILLE SSA 10; CARPENTERSVILLE SSA 11; CARPENTERSVILLE SSA 18; CARPENTERSVILLE SSA 19; CARPENTERSVILLE SSA 2; CARPENTERSVILLE SSA 20; CARPENTERSVILLE SSA 21; CARPENTERSVILLE SSA 23; CARPENTERSVILLE SSA 24; CARPENTERSVILLE SSA 26; CARPENTERSVILLE SSA 27; CARPENTERSVILLE SSA 28; CARPENTERSVILLE SSA 29; CARPENTERSVILLE SSA 3; CARPENTERSVILLE SSA 30; CARPENTERSVILLE SSA 31; EAST DUNDEE SSA 2; EAST DUNDEE SSA 3; EAST DUNDEE SSA 4; ELBURN SSA 1; ELBURN SSA 2; ELBURN SSA 3; ELBURN SSA 5; ELBURN SSA 6; ELGIN SSA 10; ELGIN SSA 11; ELGIN SSA 12; ELGIN SSA 13; ELGIN SSA 16; ELGIN SSA 17; ELGIN SSA 18; ELGIN SSA 19; ELGIN SSA 20; ELGIN SSA 24; ELGIN SSA 25; ELGIN SSA 3; ELGIN SSA 4; ELGIN SSA 5; ELGIN SSA 7; ELGIN SSA 8; ELGIN SSA 9; GENEVA SSA 1; GENEVA SSA 11; GENEVA SSA 14; GENEVA SSA 16; GENEVA SSA 17; GENEVA SSA 18; GENEVA SSA 2; GENEVA SSA 20; GENEVA SSA 21; GENEVA SSA 23; GENEVA SSA 25; GENEVA SSA 26; GENEVA SSA 27; GENEVA SSA 28; GENEVA SSA 29; GENEVA SSA 3; GENEVA SSA 30; GENEVA SSA 32; GENEVA SSA 33; GENEVA SSA 4; GENEVA SSA 5; GENEVA SSA 7; GENEVA SSA 8; GENEVA SSA 9; GILBERTS SSA 11; GILBERTS SSA 12; GILBERTS SSA 13; GILBERTS SSA 22; GILBERTS SSA 25; HAMPSHIRE SSA 10; HAMPSHIRE SSA 11; HAMPSHIRE SSA 12; HAMPSHIRE SSA 15; HAMPSHIRE SSA 2; HAMPSHIRE SSA 20; HAMPSHIRE SSA 21; HAMPSHIRE SSA 22; HAMPSHIRE SSA 23; HAMPSHIRE SSA 26; HAMPSHIRE SSA 3; HAMPSHIRE SSA 4; HAMPSHIRE SSA 6; HAMPSHIRE SSA 7; HAMPSHIRE SSA 8; KC SSA SW 1; KC SSA SW 10; KC SSA SW 11; KC SSA SW 12; KC SSA SW 13; KC SSA SW 14; KC SSA SW 15; KC SSA SW 16; KC SSA SW 17; KC SSA SW 18; KC SSA SW 19; KC SSA SW 2; KC SSA SW 20; KC SSA SW 21; KC SSA SW 22; KC SSA SW 23; KC SSA SW 25; KC SSA SW 26; KC SSA SW 27; KC SSA SW 28; KC SSA SW 29; KC SSA SW 3; KC SSA SW 30; KC SSA SW 31; KC SSA SW 32; KC SSA SW 33; KC SSA SW 34; KC SSA SW 35; KC SSA SW 4; KC SSA SW 5; KC SSA SW 51; KC SSA SW 6; KC SSA SW 7; KC SSA SW 8; KC SSA SW 9; MAPLE PARK SSA 2; MAPLE PARK SSA 4; MILL CREEK SSA; MONTGOMERY SSA 1; MONTGOMERY SSA 12; MONTGOMERY SSA 13; MONTGOMERY SSA 14; MONTGOMERY SSA 17; MONTGOMERY SSA 18; MONTGOMERY SSA 2; MONTGOMERY SSA 23; MONTGOMERY SSA 24; MONTGOMERY SSA 25; MONTGOMERY SSA 26; MONTGOMERY SSA 32; MONTGOMERY SSA 34; MONTGOMERY SSA 35; MONTGOMERY SSA 36; MONTGOMERY SSA 37; MONTGOMERY SSA 38; MONTGOMERY SSA 40; MONTGOMERY SSA 41; MONTGOMERY SSA 5; MONTGOMERY SSA 5A; MONTGOMERY SSA 6; MONTGOMERY SSA 9; NORTH AURORA SSA 10; NORTH AURORA SSA 11; NORTH AURORA SSA 12; NORTH AURORA SSA 13; NORTH AURORA SSA 14; NORTH AURORA SSA 15; NORTH AURORA SSA 16; NORTH AURORA SSA 17; NORTH AURORA SSA 18; NORTH AURORA SSA 19; NORTH AURORA SSA 20; NORTH AURORA SSA 21; NORTH AURORA SSA 22; NORTH AURORA SSA 23; NORTH AURORA SSA 24; NORTH AURORA SSA 25; NORTH AURORA SSA 26; NORTH AURORA SSA 27; NORTH AURORA SSA 28; NORTH AURORA SSA 29; NORTH AURORA SSA 3; NORTH AURORA SSA 30; NORTH AURORA SSA 31; NORTH AURORA SSA 32; NORTH AURORA SSA 33; NORTH AURORA SSA 34; NORTH AURORA SSA 35; NORTH AURORA SSA 37; NORTH AURORA SSA 39; NORTH AURORA SSA 4; NORTH AURORA SSA 40; NORTH AURORA SSA 41; NORTH AURORA SSA 5; NORTH AURORA SSA 7; NORTH AURORA SSA 8; NORTH AURORA SSA 9; PINGREE GROVE SSA 5; PINGREE GRV SSA 10; PINGREE GRV SSA 16; PINGREE GRV SSA 17; PINGREE GRV SSA 19; PINGREE GRV SSA 20; PINGREE GRV SSA 8; RICHARDSON SUBDIVISION SSA; SLEEPY HOLLOW SSA 2; SOUTH ELGIN SSA 1; SOUTH ELGIN SSA 2; SOUTH ELGIN SSA 3; SOUTH ELGIN SSA 4; SOUTH ELGIN SSA 5; ST CHARLES SSA 10; ST CHARLES SSA 11; ST CHARLES SSA 12; ST CHARLES SSA 13; ST CHARLES SSA 14; ST CHARLES SSA 15; ST CHARLES SSA 16; ST CHARLES SSA 17; ST CHARLES SSA 18; ST CHARLES SSA 19; ST CHARLES SSA 1A; ST CHARLES SSA 1B; ST CHARLES SSA 20; ST CHARLES SSA 21; ST CHARLES SSA 22; ST CHARLES SSA 23; ST CHARLES SSA 24; ST CHARLES SSA 25; ST CHARLES SSA 26; ST CHARLES SSA 27; ST CHARLES SSA 28; ST CHARLES SSA 29; ST CHARLES SSA 30; ST CHARLES SSA 31; ST CHARLES SSA 35; ST CHARLES SSA 36; ST CHARLES SSA 39; ST CHARLES SSA 40; ST CHARLES SSA 41; ST CHARLES SSA 42; ST CHARLES SSA 43; ST CHARLES SSA 44; ST CHARLES SSA 46; ST CHARLES SSA 47; ST CHARLES SSA 48; ST CHARLES SSA 49; ST CHARLES SSA 5; ST CHARLES SSA 50; ST CHARLES SSA 51; ST CHARLES SSA 53; ST CHARLES SSA 54; ST CHARLES SSA 55; ST CHARLES SSA 56; ST CHARLES SSA 57; ST CHARLES SSA 58; ST CHARLES SSA 59; ST CHARLES SSA 6; ST CHARLES SSA 60; ST CHARLES SSA 61; ST CHARLES SSA 62; ST CHARLES SSA 64; ST CHARLES SSA 65; ST CHARLES SSA 66; ST CHARLES SSA 69; ST CHARLES SSA 7; ST CHARLES SSA 70; ST CHARLES SSA 8; ST CHARLES SSA 9; SUGAR GROVE SSA 1; SUGAR GROVE SSA 11; SUGAR GROVE SSA 13; SUGAR GROVE SSA 14; SUGAR GROVE SSA 16; SUGAR GROVE SSA 18; SUGAR GROVE SSA 2; SUGAR GROVE SSA 23; SUGAR GROVE SSA 24; SUGAR GROVE SSA 25; SUGAR GROVE SSA 3; SUGAR GROVE SSA 4; SUGAR GROVE SSA 6; SUGAR GROVE SSA 7; SUGAR GROVE SSA 8; SUGAR GROVE SSA 9; VIRGIL SSA 1; WAYNE SSA 1; WAYNE SSA 3; WAYNE SSA 5; WEST DUNDEE SSA 1; WEST DUNDEE SSA 2; WEST DUNDEE SSA 4; WEST DUNDEE SSA 6; WEST DUNDEE SSA 7</t>
   </si>
   <si>
     <t xml:space="preserve">AURORA SSA 100B; AURORA SSA 100C; AURORA SSA 101; AURORA SSA 109B; AURORA SSA 120; AURORA SSA 125; AURORA SSA 128; AURORA SSA 136B; AURORA SSA 15; AURORA SSA 16; AURORA SSA 166; AURORA SSA 167; AURORA SSA 173; AURORA SSA 175; AURORA SSA 176; AURORA SSA 184; AURORA SSA 189; AURORA SSA 63; BATAVIA SSA 62; CARPENTERSVILLE SSA 25; ELBURN SSA 4; GENEVA SSA 23; GILBERTS SSA 23; KC SSA SW 24; MONTGOMERY SSA 19; MONTGOMERY SSA 41; NORTH AURORA SSA 17; NORTH AURORA SSA 36; NORTH AURORA SSA 38; PINGREE GRV SSA 11; ST CHARLES SSA 1B; ST CHARLES SSA 25; ST CHARLES SSA 45; ST CHARLES SSA 52; ST CHARLES SSA 67; ST CHARLES SSA 68; SUGAR GROVE SSA 10; SUGAR GROVE SSA 15; SUGAR GROVE SSA 18; SUGAR GROVE SSA 19; SUGAR GROVE SSA 20; SUGAR GROVE SSA 21; SUGAR GROVE SSA 26; SUGAR GROVE SSA 27; SUGAR GROVE SSA 5; WEST DUNDEE SSA 3; WEST DUNDEE SSA 5; WEST DUNDEE SSA 9</t>
